--- a/doc/verify/load/graphs_login_tests.xlsx
+++ b/doc/verify/load/graphs_login_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljurcisi\Desktop\results load test\LOGIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7133F26D-8F63-4E02-83EA-5678E42C5F81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AC5DBF-F3E5-4CFF-8B96-38CC709ED341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{F8B534BF-53E2-4801-847C-7363B0192F93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{F8B534BF-53E2-4801-847C-7363B0192F93}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="18">
   <si>
     <t>Label</t>
   </si>
@@ -78,6 +78,12 @@
   <si>
     <t>Authorize 2</t>
   </si>
+  <si>
+    <t>AVG SUM</t>
+  </si>
+  <si>
+    <t>THR SUM</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -131,6 +137,12 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -184,7 +196,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average response vs Users</a:t>
+              <a:t>Total Average response vs Users</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -264,258 +276,72 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>total!$C$3:$C$42</c:f>
+              <c:f>(total!$C$3,total!$C$8,total!$C$13,total!$C$18,total!$C$23,total!$C$28,total!$C$33,total!$C$38,total!$C$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>128</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>total!$D$3:$D$42</c:f>
+              <c:f>(total!$M$3,total!$M$8,total!$M$13,total!$M$18,total!$M$23,total!$M$28,total!$M$33,total!$M$38,total!$M$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>295</c:v>
+                  <c:v>1576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1069</c:v>
+                  <c:v>1565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>1604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84</c:v>
+                  <c:v>1576</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>1567</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>285</c:v>
+                  <c:v>2535</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1069</c:v>
+                  <c:v>3599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64</c:v>
+                  <c:v>7782</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1070</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1069</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1068</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1261</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1067</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2320</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1067</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6440</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1083</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>74</c:v>
+                  <c:v>12387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,7 +651,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Error rate</a:t>
+              <a:t>Tota Error rate</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -913,139 +739,46 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>total!$C$3:$C$42</c:f>
+              <c:f>(total!$C$3,total!$C$8,total!$C$13,total!$C$18,total!$C$23,total!$C$28,total!$C$33,total!$C$38,total!$C$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>128</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>total!$H$3:$H$42</c:f>
+              <c:f>(total!$H$3,total!$H$8,total!$H$13,total!$H$18,total!$H$23,total!$H$28,total!$H$33,total!$H$38,total!$H$43)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1062,109 +795,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.2187499999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.29125000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.2187499999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.29125000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>0.40734375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1474,7 +1114,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput</a:t>
+              <a:t>Total Throughput</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1570,258 +1210,72 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>total!$C$3:$C$42</c:f>
+              <c:f>(total!$C$3,total!$C$8,total!$C$13,total!$C$18,total!$C$23,total!$C$28,total!$C$33,total!$C$38,total!$C$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>128</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>total!$D$3:$D$42</c:f>
+              <c:f>(total!$N$3,total!$N$8,total!$N$13,total!$N$18,total!$N$23,total!$N$28,total!$N$33,total!$N$38,total!$N$43)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>295</c:v>
+                  <c:v>3.2322657023409169</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1069</c:v>
+                  <c:v>6.2949701642585696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>12.275305341412389</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84</c:v>
+                  <c:v>24.483996503593321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>48.663833264919184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>285</c:v>
+                  <c:v>57.184355300235907</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1069</c:v>
+                  <c:v>73.372007256329795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64</c:v>
+                  <c:v>64.590505707983411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1070</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1069</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1068</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1261</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1067</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2320</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1067</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6440</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1083</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>74</c:v>
+                  <c:v>68.181692985637198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1829,7 +1283,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2546-449B-80B6-DB5743177812}"/>
+              <c16:uniqueId val="{00000000-F92A-4E9D-A02C-D4B79B6866D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1978,7 +1432,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2152,8 +1606,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="5"/>
+          <c:idx val="5"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'By Steps'!$B$3</c:f>
@@ -2163,38 +1617,15 @@
                   <c:v>Authorize</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c:f>
+              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38,'By Steps'!$C$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2219,15 +1650,19 @@
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('By Steps'!$D$3,'By Steps'!$D$8,'By Steps'!$D$13,'By Steps'!$D$18,'By Steps'!$D$23,'By Steps'!$D$28,'By Steps'!$D$33,'By Steps'!$D$38)</c:f>
+              <c:f>('By Steps'!$D$3,'By Steps'!$D$8,'By Steps'!$D$13,'By Steps'!$D$18,'By Steps'!$D$23,'By Steps'!$D$28,'By Steps'!$D$33,'By Steps'!$D$38,'By Steps'!$D$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>295</c:v>
                 </c:pt>
@@ -2252,19 +1687,23 @@
                 <c:pt idx="7">
                   <c:v>6440</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>9925</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-CF2A-49B4-9890-52030F464AB6}"/>
+              <c16:uniqueId val="{00000013-CF2A-49B4-9890-52030F464AB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="6"/>
+          <c:idx val="6"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'By Steps'!$B$5</c:f>
@@ -2274,38 +1713,15 @@
                   <c:v>Authorize 2</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c:f>
+              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38,'By Steps'!$C$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2330,15 +1746,19 @@
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('By Steps'!$D$5,'By Steps'!$D$10,'By Steps'!$D$15,'By Steps'!$D$20,'By Steps'!$D$25,'By Steps'!$D$30,'By Steps'!$D$35,'By Steps'!$D$40)</c:f>
+              <c:f>('By Steps'!$D$5,'By Steps'!$D$10,'By Steps'!$D$15,'By Steps'!$D$20,'By Steps'!$D$25,'By Steps'!$D$30,'By Steps'!$D$35,'By Steps'!$D$40,'By Steps'!$D$45)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -2362,20 +1782,23 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-CF2A-49B4-9890-52030F464AB6}"/>
+              <c16:uniqueId val="{00000014-CF2A-49B4-9890-52030F464AB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="7"/>
+          <c:idx val="7"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'By Steps'!$B$4</c:f>
@@ -2385,38 +1808,15 @@
                   <c:v>Login</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c:f>
+              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38,'By Steps'!$C$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2441,15 +1841,19 @@
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('By Steps'!$D$4,'By Steps'!$D$9,'By Steps'!$D$14,'By Steps'!$D$19,'By Steps'!$D$24,'By Steps'!$D$29,'By Steps'!$D$34,'By Steps'!$D$39)</c:f>
+              <c:f>('By Steps'!$D$4,'By Steps'!$D$9,'By Steps'!$D$14,'By Steps'!$D$19,'By Steps'!$D$24,'By Steps'!$D$29,'By Steps'!$D$34,'By Steps'!$D$39,'By Steps'!$D$44)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1069</c:v>
                 </c:pt>
@@ -2473,20 +1877,23 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-CF2A-49B4-9890-52030F464AB6}"/>
+              <c16:uniqueId val="{00000015-CF2A-49B4-9890-52030F464AB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="8"/>
+          <c:idx val="8"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'By Steps'!$B$6</c:f>
@@ -2496,38 +1903,15 @@
                   <c:v>Token</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c:f>
+              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38,'By Steps'!$C$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2552,15 +1936,19 @@
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('By Steps'!$D$6,'By Steps'!$D$11,'By Steps'!$D$16,'By Steps'!$D$21,'By Steps'!$D$26,'By Steps'!$D$31,'By Steps'!$D$36,'By Steps'!$D$41)</c:f>
+              <c:f>('By Steps'!$D$6,'By Steps'!$D$11,'By Steps'!$D$16,'By Steps'!$D$21,'By Steps'!$D$26,'By Steps'!$D$31,'By Steps'!$D$36,'By Steps'!$D$41,'By Steps'!$D$46)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -2584,20 +1972,23 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-CF2A-49B4-9890-52030F464AB6}"/>
+              <c16:uniqueId val="{00000016-CF2A-49B4-9890-52030F464AB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="9"/>
+          <c:idx val="9"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>'By Steps'!$B$7</c:f>
@@ -2607,38 +1998,15 @@
                   <c:v>Userinfo</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c:f>
+              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38,'By Steps'!$C$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2663,15 +2031,19 @@
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('By Steps'!$D$7,'By Steps'!$D$12,'By Steps'!$D$17,'By Steps'!$D$22,'By Steps'!$D$27,'By Steps'!$D$32,'By Steps'!$D$37,'By Steps'!$D$42)</c:f>
+              <c:f>('By Steps'!$D$7,'By Steps'!$D$12,'By Steps'!$D$17,'By Steps'!$D$22,'By Steps'!$D$27,'By Steps'!$D$32,'By Steps'!$D$37,'By Steps'!$D$42,'By Steps'!$D$47)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>65</c:v>
                 </c:pt>
@@ -2695,14 +2067,17 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-CF2A-49B4-9890-52030F464AB6}"/>
+              <c16:uniqueId val="{00000017-CF2A-49B4-9890-52030F464AB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2718,545 +2093,7 @@
         <c:smooth val="0"/>
         <c:axId val="1211033007"/>
         <c:axId val="1321418991"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'By Steps'!$B$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Authorize</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('By Steps'!$D$3,'By Steps'!$D$8,'By Steps'!$D$13,'By Steps'!$D$18,'By Steps'!$D$23,'By Steps'!$D$28,'By Steps'!$D$33,'By Steps'!$D$38)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>295</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>285</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>325</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>296</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>292</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1261</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2320</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>6440</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000013-CF2A-49B4-9890-52030F464AB6}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'By Steps'!$B$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Authorize 2</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('By Steps'!$D$5,'By Steps'!$D$10,'By Steps'!$D$15,'By Steps'!$D$20,'By Steps'!$D$25,'By Steps'!$D$30,'By Steps'!$D$35,'By Steps'!$D$40)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>73</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000014-CF2A-49B4-9890-52030F464AB6}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'By Steps'!$B$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Login</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('By Steps'!$D$4,'By Steps'!$D$9,'By Steps'!$D$14,'By Steps'!$D$19,'By Steps'!$D$24,'By Steps'!$D$29,'By Steps'!$D$34,'By Steps'!$D$39)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>1069</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1069</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1070</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1069</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1068</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1067</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1067</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1083</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000015-CF2A-49B4-9890-52030F464AB6}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'By Steps'!$B$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Token</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('By Steps'!$D$6,'By Steps'!$D$11,'By Steps'!$D$16,'By Steps'!$D$21,'By Steps'!$D$26,'By Steps'!$D$31,'By Steps'!$D$36,'By Steps'!$D$41)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>86</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>112</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000016-CF2A-49B4-9890-52030F464AB6}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'By Steps'!$B$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Userinfo</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('By Steps'!$D$7,'By Steps'!$D$12,'By Steps'!$D$17,'By Steps'!$D$22,'By Steps'!$D$27,'By Steps'!$D$32,'By Steps'!$D$37,'By Steps'!$D$42)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>74</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000017-CF2A-49B4-9890-52030F464AB6}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1211033007"/>
@@ -3586,10 +2423,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c:f>
+              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38,'By Steps'!$C$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3613,16 +2450,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('By Steps'!$H$3,'By Steps'!$H$8,'By Steps'!$H$13,'By Steps'!$H$18,'By Steps'!$H$23,'By Steps'!$H$28,'By Steps'!$H$33,'By Steps'!$H$38)</c:f>
+              <c:f>('By Steps'!$H$3,'By Steps'!$H$8,'By Steps'!$H$13,'By Steps'!$H$18,'By Steps'!$H$23,'By Steps'!$H$28,'By Steps'!$H$33,'By Steps'!$H$38,'By Steps'!$H$43)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3646,6 +2486,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.29125000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40734375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3697,10 +2540,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c:f>
+              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38,'By Steps'!$C$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3724,16 +2567,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('By Steps'!$H$5,'By Steps'!$H$10,'By Steps'!$H$15,'By Steps'!$H$20,'By Steps'!$H$25,'By Steps'!$H$30,'By Steps'!$H$35,'By Steps'!$H$40)</c:f>
+              <c:f>('By Steps'!$H$5,'By Steps'!$H$10,'By Steps'!$H$15,'By Steps'!$H$20,'By Steps'!$H$25,'By Steps'!$H$30,'By Steps'!$H$35,'By Steps'!$H$40,'By Steps'!$H$45)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3756,6 +2602,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3808,10 +2657,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c:f>
+              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38,'By Steps'!$C$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3835,16 +2684,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('By Steps'!$H$4,'By Steps'!$H$9,'By Steps'!$H$14,'By Steps'!$H$19,'By Steps'!$H$24,'By Steps'!$H$29,'By Steps'!$H$34,'By Steps'!$H$39)</c:f>
+              <c:f>('By Steps'!$H$4,'By Steps'!$H$9,'By Steps'!$H$14,'By Steps'!$H$19,'By Steps'!$H$24,'By Steps'!$H$29,'By Steps'!$H$34,'By Steps'!$H$39,'By Steps'!$H$44)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3867,6 +2719,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3919,10 +2774,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c:f>
+              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38,'By Steps'!$C$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3946,16 +2801,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('By Steps'!$H$6,'By Steps'!$H$11,'By Steps'!$H$16,'By Steps'!$H$21,'By Steps'!$H$26,'By Steps'!$H$31,'By Steps'!$H$36,'By Steps'!$H$41)</c:f>
+              <c:f>('By Steps'!$H$6,'By Steps'!$H$11,'By Steps'!$H$16,'By Steps'!$H$21,'By Steps'!$H$26,'By Steps'!$H$31,'By Steps'!$H$36,'By Steps'!$H$41,'By Steps'!$H$46)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3978,6 +2836,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4030,10 +2891,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38)</c:f>
+              <c:f>('By Steps'!$C$3,'By Steps'!$C$8,'By Steps'!$C$13,'By Steps'!$C$18,'By Steps'!$C$23,'By Steps'!$C$28,'By Steps'!$C$33,'By Steps'!$C$38,'By Steps'!$C$43)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4057,16 +2918,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('By Steps'!$H$7,'By Steps'!$H$12,'By Steps'!$H$17,'By Steps'!$H$22,'By Steps'!$H$27,'By Steps'!$H$32,'By Steps'!$H$37,'By Steps'!$H$42)</c:f>
+              <c:f>('By Steps'!$H$7,'By Steps'!$H$12,'By Steps'!$H$17,'By Steps'!$H$22,'By Steps'!$H$27,'By Steps'!$H$32,'By Steps'!$H$37,'By Steps'!$H$42,'By Steps'!$H$47)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4089,6 +2953,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6746,15 +5613,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>316231</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>320041</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7081,10 +5948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02FE5D5-3ABD-43C7-A23F-A04DA3B2CD27}">
-  <dimension ref="B2:L42"/>
+  <dimension ref="B2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7094,7 +5961,7 @@
     <col min="9" max="9" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7128,8 +5995,14 @@
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -7163,8 +6036,16 @@
       <c r="L3" s="3">
         <v>37251</v>
       </c>
+      <c r="M3" s="5">
+        <f>SUM(D3:D7)</f>
+        <v>1576</v>
+      </c>
+      <c r="N3" s="6">
+        <f>SUM(I3:I7)</f>
+        <v>3.2322657023409169</v>
+      </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -7198,8 +6079,9 @@
       <c r="L4" s="3">
         <v>625.76</v>
       </c>
+      <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -7233,8 +6115,9 @@
       <c r="L5" s="3">
         <v>534.88</v>
       </c>
+      <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -7268,8 +6151,9 @@
       <c r="L6" s="3">
         <v>2158.88</v>
       </c>
+      <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -7303,8 +6187,9 @@
       <c r="L7" s="3">
         <v>792</v>
       </c>
+      <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -7338,8 +6223,16 @@
       <c r="L8" s="3">
         <v>37251</v>
       </c>
+      <c r="M8" s="5">
+        <f>SUM(D8:D12)</f>
+        <v>1565</v>
+      </c>
+      <c r="N8" s="6">
+        <f>SUM(I8:I12)</f>
+        <v>6.2949701642585696</v>
+      </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -7373,8 +6266,9 @@
       <c r="L9" s="3">
         <v>625.82000000000005</v>
       </c>
+      <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
@@ -7408,8 +6302,9 @@
       <c r="L10" s="3">
         <v>534.91</v>
       </c>
+      <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -7443,8 +6338,9 @@
       <c r="L11" s="3">
         <v>2158.91</v>
       </c>
+      <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -7478,8 +6374,9 @@
       <c r="L12" s="3">
         <v>792</v>
       </c>
+      <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -7513,8 +6410,16 @@
       <c r="L13" s="3">
         <v>37251</v>
       </c>
+      <c r="M13" s="5">
+        <f>SUM(D13:D17)</f>
+        <v>1604</v>
+      </c>
+      <c r="N13" s="6">
+        <f>SUM(I13:I17)</f>
+        <v>12.275305341412389</v>
+      </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
@@ -7548,8 +6453,9 @@
       <c r="L14" s="3">
         <v>625.85</v>
       </c>
+      <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -7583,8 +6489,9 @@
       <c r="L15" s="3">
         <v>534.92499999999995</v>
       </c>
+      <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -7618,8 +6525,9 @@
       <c r="L16" s="3">
         <v>2158.9250000000002</v>
       </c>
+      <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -7653,8 +6561,9 @@
       <c r="L17" s="3">
         <v>792</v>
       </c>
+      <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
@@ -7688,8 +6597,16 @@
       <c r="L18" s="3">
         <v>37251</v>
       </c>
+      <c r="M18" s="5">
+        <f>SUM(D18:D22)</f>
+        <v>1576</v>
+      </c>
+      <c r="N18" s="6">
+        <f>SUM(I18:I22)</f>
+        <v>24.483996503593321</v>
+      </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -7723,8 +6640,9 @@
       <c r="L19" s="3">
         <v>625.78499999999997</v>
       </c>
+      <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
@@ -7758,8 +6676,9 @@
       <c r="L20" s="3">
         <v>534.89250000000004</v>
       </c>
+      <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -7793,8 +6712,9 @@
       <c r="L21" s="3">
         <v>2158.8924999999999</v>
       </c>
+      <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
@@ -7828,8 +6748,9 @@
       <c r="L22" s="3">
         <v>792</v>
       </c>
+      <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
@@ -7863,8 +6784,16 @@
       <c r="L23" s="3">
         <v>37251</v>
       </c>
+      <c r="M23" s="5">
+        <f>SUM(D23:D27)</f>
+        <v>1567</v>
+      </c>
+      <c r="N23" s="6">
+        <f>SUM(I23:I27)</f>
+        <v>48.663833264919184</v>
+      </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -7898,8 +6827,9 @@
       <c r="L24" s="3">
         <v>625.78750000000002</v>
       </c>
+      <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
@@ -7933,8 +6863,9 @@
       <c r="L25" s="3">
         <v>534.89374999999995</v>
       </c>
+      <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
@@ -7968,8 +6899,9 @@
       <c r="L26" s="3">
         <v>2158.8912500000001</v>
       </c>
+      <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
@@ -8003,8 +6935,9 @@
       <c r="L27" s="3">
         <v>792</v>
       </c>
+      <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
@@ -8038,8 +6971,16 @@
       <c r="L28" s="3">
         <v>35867.96</v>
       </c>
+      <c r="M28" s="5">
+        <f>SUM(D28:D32)</f>
+        <v>2535</v>
+      </c>
+      <c r="N28" s="6">
+        <f>SUM(I28:I32)</f>
+        <v>57.184355300235907</v>
+      </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
@@ -8073,8 +7014,9 @@
       <c r="L29" s="3">
         <v>625.77994791666595</v>
       </c>
+      <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
@@ -8108,8 +7050,9 @@
       <c r="L30" s="3">
         <v>534.88997395833303</v>
       </c>
+      <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
@@ -8143,8 +7086,9 @@
       <c r="L31" s="3">
         <v>2158.888671875</v>
       </c>
+      <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
@@ -8178,8 +7122,9 @@
       <c r="L32" s="3">
         <v>792</v>
       </c>
+      <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>14</v>
       </c>
@@ -8213,8 +7158,16 @@
       <c r="L33" s="3">
         <v>34409.285000000003</v>
       </c>
+      <c r="M33" s="5">
+        <f>SUM(D33:D37)</f>
+        <v>3599</v>
+      </c>
+      <c r="N33" s="6">
+        <f>SUM(I33:I37)</f>
+        <v>73.372007256329795</v>
+      </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
@@ -8248,8 +7201,9 @@
       <c r="L34" s="3">
         <v>625.79434797412296</v>
       </c>
+      <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
@@ -8283,8 +7237,9 @@
       <c r="L35" s="3">
         <v>534.89717398706102</v>
       </c>
+      <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
@@ -8318,8 +7273,9 @@
       <c r="L36" s="3">
         <v>2158.89547156962</v>
       </c>
+      <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
@@ -8353,8 +7309,9 @@
       <c r="L37" s="3">
         <v>792</v>
       </c>
+      <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
@@ -8388,8 +7345,16 @@
       <c r="L38" s="3">
         <v>27180.74</v>
       </c>
+      <c r="M38" s="5">
+        <f>SUM(D38:D42)</f>
+        <v>7782</v>
+      </c>
+      <c r="N38" s="6">
+        <f>SUM(I38:I42)</f>
+        <v>64.590505707983411</v>
+      </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
@@ -8423,8 +7388,9 @@
       <c r="L39" s="3">
         <v>625.77513227513202</v>
       </c>
+      <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>15</v>
       </c>
@@ -8458,8 +7424,9 @@
       <c r="L40" s="3">
         <v>534.88756613756595</v>
       </c>
+      <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
@@ -8493,8 +7460,9 @@
       <c r="L41" s="3">
         <v>2158.8869047619</v>
       </c>
+      <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>11</v>
       </c>
@@ -8528,6 +7496,194 @@
       <c r="L42" s="3">
         <v>792</v>
       </c>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2">
+        <v>256</v>
+      </c>
+      <c r="D43" s="2">
+        <v>9925</v>
+      </c>
+      <c r="E43" s="2">
+        <v>251</v>
+      </c>
+      <c r="F43" s="2">
+        <v>21080</v>
+      </c>
+      <c r="G43" s="3">
+        <v>9787.0684407151002</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.40734375</v>
+      </c>
+      <c r="I43" s="3">
+        <v>20.230053641251601</v>
+      </c>
+      <c r="J43" s="3">
+        <v>457.67893521957501</v>
+      </c>
+      <c r="K43" s="3">
+        <v>9.9144796213819006</v>
+      </c>
+      <c r="L43" s="3">
+        <v>23166.682499999999</v>
+      </c>
+      <c r="M43" s="5">
+        <f>SUM(D43:D47)</f>
+        <v>12387</v>
+      </c>
+      <c r="N43" s="6">
+        <f>SUM(I43:I47)</f>
+        <v>68.181692985637198</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2">
+        <v>256</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1126</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1059</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2603</v>
+      </c>
+      <c r="G44" s="3">
+        <v>130.859434867407</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>11.9742709443194</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7.3176220107730501</v>
+      </c>
+      <c r="K44" s="3">
+        <v>4.9697901868513403</v>
+      </c>
+      <c r="L44" s="3">
+        <v>625.778803058265</v>
+      </c>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2">
+        <v>256</v>
+      </c>
+      <c r="D45" s="2">
+        <v>129</v>
+      </c>
+      <c r="E45" s="2">
+        <v>54</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1748</v>
+      </c>
+      <c r="G45" s="3">
+        <v>125.748082700637</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>11.9929364039213</v>
+      </c>
+      <c r="J45" s="3">
+        <v>6.2645454840531496</v>
+      </c>
+      <c r="K45" s="3">
+        <v>7.1533509198642298</v>
+      </c>
+      <c r="L45" s="3">
+        <v>534.88940152913199</v>
+      </c>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2">
+        <v>256</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1082</v>
+      </c>
+      <c r="E46" s="2">
+        <v>117</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4565</v>
+      </c>
+      <c r="G46" s="3">
+        <v>717.09674116584097</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>11.9916093511157</v>
+      </c>
+      <c r="J46" s="3">
+        <v>25.281785987177699</v>
+      </c>
+      <c r="K46" s="3">
+        <v>8.0100203087531092</v>
+      </c>
+      <c r="L46" s="3">
+        <v>2158.8886105984702</v>
+      </c>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2">
+        <v>256</v>
+      </c>
+      <c r="D47" s="2">
+        <v>125</v>
+      </c>
+      <c r="E47" s="2">
+        <v>55</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2068</v>
+      </c>
+      <c r="G47" s="3">
+        <v>121.640977998317</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>11.9928226450292</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9.2756987645147699</v>
+      </c>
+      <c r="K47" s="3">
+        <v>14.288323854429301</v>
+      </c>
+      <c r="L47" s="3">
+        <v>792</v>
+      </c>
+      <c r="M47" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8538,10 +7694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A074B23-3A9E-44BC-AE9F-0BE7CC6FC860}">
-  <dimension ref="B2:L42"/>
+  <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L42" sqref="B3:L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9987,6 +9143,181 @@
         <v>792</v>
       </c>
     </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2">
+        <v>256</v>
+      </c>
+      <c r="D43" s="2">
+        <v>9925</v>
+      </c>
+      <c r="E43" s="2">
+        <v>251</v>
+      </c>
+      <c r="F43" s="2">
+        <v>21080</v>
+      </c>
+      <c r="G43" s="3">
+        <v>9787.0684407151002</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.40734375</v>
+      </c>
+      <c r="I43" s="3">
+        <v>20.230053641251601</v>
+      </c>
+      <c r="J43" s="3">
+        <v>457.67893521957501</v>
+      </c>
+      <c r="K43" s="3">
+        <v>9.9144796213819006</v>
+      </c>
+      <c r="L43" s="3">
+        <v>23166.682499999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2">
+        <v>256</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1126</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1059</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2603</v>
+      </c>
+      <c r="G44" s="3">
+        <v>130.859434867407</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>11.9742709443194</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7.3176220107730501</v>
+      </c>
+      <c r="K44" s="3">
+        <v>4.9697901868513403</v>
+      </c>
+      <c r="L44" s="3">
+        <v>625.778803058265</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2">
+        <v>256</v>
+      </c>
+      <c r="D45" s="2">
+        <v>129</v>
+      </c>
+      <c r="E45" s="2">
+        <v>54</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1748</v>
+      </c>
+      <c r="G45" s="3">
+        <v>125.748082700637</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>11.9929364039213</v>
+      </c>
+      <c r="J45" s="3">
+        <v>6.2645454840531496</v>
+      </c>
+      <c r="K45" s="3">
+        <v>7.1533509198642298</v>
+      </c>
+      <c r="L45" s="3">
+        <v>534.88940152913199</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2">
+        <v>256</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1082</v>
+      </c>
+      <c r="E46" s="2">
+        <v>117</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4565</v>
+      </c>
+      <c r="G46" s="3">
+        <v>717.09674116584097</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>11.9916093511157</v>
+      </c>
+      <c r="J46" s="3">
+        <v>25.281785987177699</v>
+      </c>
+      <c r="K46" s="3">
+        <v>8.0100203087531092</v>
+      </c>
+      <c r="L46" s="3">
+        <v>2158.8886105984702</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2">
+        <v>256</v>
+      </c>
+      <c r="D47" s="2">
+        <v>125</v>
+      </c>
+      <c r="E47" s="2">
+        <v>55</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2068</v>
+      </c>
+      <c r="G47" s="3">
+        <v>121.640977998317</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>11.9928226450292</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9.2756987645147699</v>
+      </c>
+      <c r="K47" s="3">
+        <v>14.288323854429301</v>
+      </c>
+      <c r="L47" s="3">
+        <v>792</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:L42" xr:uid="{280BEDCA-3A30-4C3E-9A67-D7FFC4E5659B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
